--- a/Data/Input/input_UIDemo.xlsx
+++ b/Data/Input/input_UIDemo.xlsx
@@ -3,12 +3,13 @@
 <x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D56612-87F5-4CBB-8625-97CEA90863FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D73DA2-6E22-45E6-BE69-AA7A194AB955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>CashIn</x:t>
   </x:si>
@@ -62,154 +63,157 @@
     <x:t>C146</x:t>
   </x:si>
   <x:si>
-    <x:t>186946</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186947</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186949</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186953</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186955</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186956</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186957</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186958</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186959</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186961</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186962</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186963</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186964</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186965</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186966</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186967</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186969</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186973</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186974</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186975</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186976</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186977</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186978</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186979</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186981</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186982</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186983</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186984</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186986</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186988</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186991</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186992</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186993</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186995</x:t>
+    <x:t>403494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403498</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403499</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403530</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403532</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403537</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403540</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403543</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -588,17 +592,12 @@
   <x:dimension ref="A1:F51"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F5" sqref="F5"/>
+      <x:selection activeCell="H9" sqref="H9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="2" width="12" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="20.710938" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="19" style="0" customWidth="1"/>
-  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -618,7 +617,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="n">
         <x:v>911.07</x:v>
       </x:c>
@@ -629,7 +628,7 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="n">
         <x:v>897.56</x:v>
       </x:c>
@@ -640,7 +639,7 @@
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="n">
         <x:v>382</x:v>
       </x:c>
@@ -651,7 +650,7 @@
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="n">
         <x:v>484.04</x:v>
       </x:c>
@@ -662,7 +661,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="n">
         <x:v>329.5</x:v>
       </x:c>
@@ -673,7 +672,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="n">
         <x:v>374.31</x:v>
       </x:c>
@@ -684,7 +683,7 @@
         <x:v>112</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="n">
         <x:v>86.43</x:v>
       </x:c>
@@ -695,7 +694,7 @@
         <x:v>104</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="n">
         <x:v>599.98</x:v>
       </x:c>
@@ -706,7 +705,7 @@
         <x:v>155</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="n">
         <x:v>446.53</x:v>
       </x:c>
@@ -717,7 +716,7 @@
         <x:v>151</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="n">
         <x:v>662.42</x:v>
       </x:c>
@@ -728,7 +727,7 @@
         <x:v>152</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="n">
         <x:v>560.55</x:v>
       </x:c>
@@ -739,7 +738,7 @@
         <x:v>141</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="n">
         <x:v>115.34</x:v>
       </x:c>
@@ -750,7 +749,7 @@
         <x:v>164</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="n">
         <x:v>262.48</x:v>
       </x:c>
@@ -761,7 +760,7 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="n">
         <x:v>840.24</x:v>
       </x:c>
@@ -772,7 +771,7 @@
         <x:v>70</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="n">
         <x:v>737.16</x:v>
       </x:c>
@@ -783,7 +782,7 @@
         <x:v>154</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -794,7 +793,7 @@
         <x:v>82</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="n">
         <x:v>147.54</x:v>
       </x:c>
@@ -805,7 +804,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="n">
         <x:v>980.09</x:v>
       </x:c>
@@ -816,7 +815,7 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="n">
         <x:v>408.62</x:v>
       </x:c>
@@ -827,7 +826,7 @@
         <x:v>126</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="n">
         <x:v>349.37</x:v>
       </x:c>
@@ -838,7 +837,7 @@
         <x:v>124</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="n">
         <x:v>794.12</x:v>
       </x:c>
@@ -849,7 +848,7 @@
         <x:v>126</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A23" s="0" t="n">
         <x:v>89.77</x:v>
       </x:c>
@@ -860,7 +859,7 @@
         <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="n">
         <x:v>40.43</x:v>
       </x:c>
@@ -871,7 +870,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="n">
         <x:v>40.33</x:v>
       </x:c>
@@ -882,7 +881,7 @@
         <x:v>132</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="n">
         <x:v>1105.16</x:v>
       </x:c>
@@ -893,7 +892,7 @@
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="n">
         <x:v>966.68</x:v>
       </x:c>
@@ -904,7 +903,7 @@
         <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="n">
         <x:v>697.58</x:v>
       </x:c>
@@ -915,7 +914,7 @@
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="n">
         <x:v>304.37</x:v>
       </x:c>
@@ -926,7 +925,7 @@
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="n">
         <x:v>106.36</x:v>
       </x:c>
@@ -937,7 +936,7 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="n">
         <x:v>878.65</x:v>
       </x:c>
@@ -948,7 +947,7 @@
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="n">
         <x:v>612.35</x:v>
       </x:c>
@@ -959,7 +958,7 @@
         <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="n">
         <x:v>262.65</x:v>
       </x:c>
@@ -970,7 +969,7 @@
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="n">
         <x:v>280.29</x:v>
       </x:c>
@@ -981,7 +980,7 @@
         <x:v>83</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="n">
         <x:v>434.59</x:v>
       </x:c>
@@ -992,7 +991,7 @@
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="n">
         <x:v>398.31</x:v>
       </x:c>
@@ -1003,7 +1002,7 @@
         <x:v>116</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A37" s="0" t="n">
         <x:v>1028.43</x:v>
       </x:c>
@@ -1014,7 +1013,7 @@
         <x:v>152</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A38" s="0" t="n">
         <x:v>1162.4</x:v>
       </x:c>
@@ -1025,7 +1024,7 @@
         <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A39" s="0" t="n">
         <x:v>395.63</x:v>
       </x:c>
@@ -1036,7 +1035,7 @@
         <x:v>72</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A40" s="0" t="n">
         <x:v>147.79</x:v>
       </x:c>
@@ -1047,7 +1046,7 @@
         <x:v>161</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A41" s="0" t="n">
         <x:v>151.48</x:v>
       </x:c>
@@ -1058,7 +1057,7 @@
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A42" s="0" t="n">
         <x:v>618.7</x:v>
       </x:c>
@@ -1069,7 +1068,7 @@
         <x:v>85</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A43" s="0" t="n">
         <x:v>406.6</x:v>
       </x:c>
@@ -1080,7 +1079,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A44" s="0" t="n">
         <x:v>906.25</x:v>
       </x:c>
@@ -1091,7 +1090,7 @@
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A45" s="0" t="n">
         <x:v>981.34</x:v>
       </x:c>
@@ -1102,7 +1101,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A46" s="0" t="n">
         <x:v>31.34</x:v>
       </x:c>
@@ -1113,7 +1112,7 @@
         <x:v>140</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A47" s="0" t="n">
         <x:v>646.75</x:v>
       </x:c>
@@ -1124,7 +1123,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A48" s="0" t="n">
         <x:v>815.39</x:v>
       </x:c>
@@ -1135,7 +1134,7 @@
         <x:v>74</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A49" s="0" t="n">
         <x:v>279.61</x:v>
       </x:c>
@@ -1146,7 +1145,7 @@
         <x:v>195</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A50" s="0" t="n">
         <x:v>1010.27</x:v>
       </x:c>
@@ -1157,7 +1156,7 @@
         <x:v>115</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A51" s="0" t="n">
         <x:v>821.17</x:v>
       </x:c>
@@ -1166,262 +1165,1052 @@
       </x:c>
       <x:c r="C51" s="0" t="n">
         <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186946" spans="1:6">
-      <x:c r="D186946" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186947" spans="1:6">
-      <x:c r="D186947" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186948" spans="1:6">
-      <x:c r="D186948" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186949" spans="1:6">
-      <x:c r="D186949" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186950" spans="1:6">
-      <x:c r="D186950" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186951" spans="1:6">
-      <x:c r="D186951" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186952" spans="1:6">
-      <x:c r="D186952" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186953" spans="1:6">
-      <x:c r="D186953" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186954" spans="1:6">
-      <x:c r="D186954" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186955" spans="1:6">
-      <x:c r="D186955" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186956" spans="1:6">
-      <x:c r="D186956" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186957" spans="1:6">
-      <x:c r="D186957" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186958" spans="1:6">
-      <x:c r="D186958" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186959" spans="1:6">
-      <x:c r="D186959" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186960" spans="1:6">
-      <x:c r="D186960" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186961" spans="1:6">
-      <x:c r="D186961" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186962" spans="1:6">
-      <x:c r="D186962" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186963" spans="1:6">
-      <x:c r="D186963" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186964" spans="1:6">
-      <x:c r="D186964" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186965" spans="1:6">
-      <x:c r="D186965" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186966" spans="1:6">
-      <x:c r="D186966" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186967" spans="1:6">
-      <x:c r="D186967" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186968" spans="1:6">
-      <x:c r="D186968" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186969" spans="1:6">
-      <x:c r="D186969" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186970" spans="1:6">
-      <x:c r="D186970" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186971" spans="1:6">
-      <x:c r="D186971" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186972" spans="1:6">
-      <x:c r="D186972" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186973" spans="1:6">
-      <x:c r="D186973" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186974" spans="1:6">
-      <x:c r="D186974" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186975" spans="1:6">
-      <x:c r="D186975" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186976" spans="1:6">
-      <x:c r="D186976" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186977" spans="1:6">
-      <x:c r="D186977" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186978" spans="1:6">
-      <x:c r="D186978" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186979" spans="1:6">
-      <x:c r="D186979" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186980" spans="1:6">
-      <x:c r="D186980" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186981" spans="1:6">
-      <x:c r="D186981" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186982" spans="1:6">
-      <x:c r="D186982" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186983" spans="1:6">
-      <x:c r="D186983" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186984" spans="1:6">
-      <x:c r="D186984" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186985" spans="1:6">
-      <x:c r="D186985" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186986" spans="1:6">
-      <x:c r="D186986" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186987" spans="1:6">
-      <x:c r="D186987" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186988" spans="1:6">
-      <x:c r="D186988" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186989" spans="1:6">
-      <x:c r="D186989" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186990" spans="1:6">
-      <x:c r="D186990" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186991" spans="1:6">
-      <x:c r="D186991" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186992" spans="1:6">
-      <x:c r="D186992" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186993" spans="1:6">
-      <x:c r="D186993" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186994" spans="1:6">
-      <x:c r="D186994" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186995" spans="1:6">
-      <x:c r="D186995" s="0" t="s">
-        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F51"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="n">
+        <x:v>911.07</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>231.36</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="n">
+        <x:v>897.56</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>528.85</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="n">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>997.34</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="n">
+        <x:v>484.04</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>388.6</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="n">
+        <x:v>329.5</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>669.55</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="n">
+        <x:v>374.31</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="n">
+        <x:v>86.43</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>682.58</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="n">
+        <x:v>599.98</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>872.16</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="n">
+        <x:v>446.53</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>778.83</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="n">
+        <x:v>662.42</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>184.2</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="n">
+        <x:v>560.55</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>203.93</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="n">
+        <x:v>115.34</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>552.88</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="n">
+        <x:v>262.48</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>830.91</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="n">
+        <x:v>840.24</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>685.89</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="n">
+        <x:v>737.16</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>524.21</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>402.85</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="n">
+        <x:v>147.54</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="n">
+        <x:v>980.09</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>99.64</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="n">
+        <x:v>408.62</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="n">
+        <x:v>349.37</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>290.87</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="n">
+        <x:v>794.12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>432.29</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="n">
+        <x:v>89.77</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>167.9</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="n">
+        <x:v>40.43</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>3.03</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="n">
+        <x:v>40.33</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>480.28</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="n">
+        <x:v>1105.16</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>248.6</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="n">
+        <x:v>966.68</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>192.68</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="n">
+        <x:v>697.58</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>165.16</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="n">
+        <x:v>304.37</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>426.8</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="n">
+        <x:v>106.36</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>506.71</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="n">
+        <x:v>878.65</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="n">
+        <x:v>74.26</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="n">
+        <x:v>612.35</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="n">
+        <x:v>974.04</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="n">
+        <x:v>262.65</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="n">
+        <x:v>305.12</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="n">
+        <x:v>280.29</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>83.1</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="n">
+        <x:v>434.59</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>49.06</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="n">
+        <x:v>398.31</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="n">
+        <x:v>526.61</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="n">
+        <x:v>1028.43</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>55.02</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="n">
+        <x:v>1162.4</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="n">
+        <x:v>926.47</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="0" t="n">
+        <x:v>395.63</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="n">
+        <x:v>794.99</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="0" t="n">
+        <x:v>147.79</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="n">
+        <x:v>546.57</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="n">
+        <x:v>151.48</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="n">
+        <x:v>95.84</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="0" t="n">
+        <x:v>618.7</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="n">
+        <x:v>136.19</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="0" t="n">
+        <x:v>406.6</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="n">
+        <x:v>640.78</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="0" t="n">
+        <x:v>906.25</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="n">
+        <x:v>83.67</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="0" t="n">
+        <x:v>981.34</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="n">
+        <x:v>194.22</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="0" t="n">
+        <x:v>31.34</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="n">
+        <x:v>782.26</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="0" t="n">
+        <x:v>646.75</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="n">
+        <x:v>476.8</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="0" t="n">
+        <x:v>815.39</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="n">
+        <x:v>418.73</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="0" t="n">
+        <x:v>279.61</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="n">
+        <x:v>449.09</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="0" t="n">
+        <x:v>1010.27</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="n">
+        <x:v>695.52</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="0" t="n">
+        <x:v>821.17</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="n">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/Data/Input/input_UIDemo.xlsx
+++ b/Data/Input/input_UIDemo.xlsx
@@ -3,13 +3,14 @@
 <x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D73DA2-6E22-45E6-BE69-AA7A194AB955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0123BBA0-9AF8-4DDC-B709-CA9F29842804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <x:sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <x:sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>CashIn</x:t>
   </x:si>
@@ -63,157 +64,292 @@
     <x:t>C146</x:t>
   </x:si>
   <x:si>
-    <x:t>403494</x:t>
+    <x:t>715431</x:t>
   </x:si>
   <x:si>
     <x:t>Success</x:t>
   </x:si>
   <x:si>
-    <x:t>403495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403496</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403497</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403498</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403499</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403502</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403505</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403506</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403517</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403519</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403532</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403537</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403538</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403539</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403541</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403542</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403543</x:t>
+    <x:t>No Exception</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Business Exception</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715441</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715443</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715445</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715446</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715447</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715463</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715471</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715472</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715473</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>851140</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -591,7 +727,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F51"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="H9" sqref="H9"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1177,6 +1313,1034 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F51"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="0" t="n">
+        <x:v>911.07</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>231.36</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="0" t="n">
+        <x:v>897.56</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>528.85</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="0" t="n">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>997.34</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0" t="n">
+        <x:v>484.04</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>388.6</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="0" t="n">
+        <x:v>329.5</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>669.55</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="0" t="n">
+        <x:v>374.31</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="0" t="n">
+        <x:v>86.43</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>682.58</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="0" t="n">
+        <x:v>599.98</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>872.16</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="0" t="n">
+        <x:v>446.53</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>778.83</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="0" t="n">
+        <x:v>662.42</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>184.2</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="0" t="n">
+        <x:v>560.55</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>203.93</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="0" t="n">
+        <x:v>115.34</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>552.88</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="0" t="n">
+        <x:v>262.48</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>830.91</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="0" t="n">
+        <x:v>840.24</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>685.89</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="0" t="n">
+        <x:v>737.16</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>524.21</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>402.85</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A18" s="0" t="n">
+        <x:v>147.54</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="0" t="n">
+        <x:v>980.09</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>99.64</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A20" s="0" t="n">
+        <x:v>408.62</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A21" s="0" t="n">
+        <x:v>349.37</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>290.87</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A22" s="0" t="n">
+        <x:v>794.12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>432.29</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A23" s="0" t="n">
+        <x:v>89.77</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>167.9</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A24" s="0" t="n">
+        <x:v>40.43</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>3.03</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A25" s="0" t="n">
+        <x:v>40.33</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>480.28</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A26" s="0" t="n">
+        <x:v>1105.16</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>248.6</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A27" s="0" t="n">
+        <x:v>966.68</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>192.68</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A28" s="0" t="n">
+        <x:v>697.58</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>165.16</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A29" s="0" t="n">
+        <x:v>304.37</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>426.8</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A30" s="0" t="n">
+        <x:v>106.36</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>506.71</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A31" s="0" t="n">
+        <x:v>878.65</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="n">
+        <x:v>74.26</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A32" s="0" t="n">
+        <x:v>612.35</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="n">
+        <x:v>974.04</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A33" s="0" t="n">
+        <x:v>262.65</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="n">
+        <x:v>305.12</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A34" s="0" t="n">
+        <x:v>280.29</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>83.1</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A35" s="0" t="n">
+        <x:v>434.59</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>49.06</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A36" s="0" t="n">
+        <x:v>398.31</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="n">
+        <x:v>526.61</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A37" s="0" t="n">
+        <x:v>1028.43</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>55.02</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A38" s="0" t="n">
+        <x:v>1162.4</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="n">
+        <x:v>926.47</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A39" s="0" t="n">
+        <x:v>395.63</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="n">
+        <x:v>794.99</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A40" s="0" t="n">
+        <x:v>147.79</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="n">
+        <x:v>546.57</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A41" s="0" t="n">
+        <x:v>151.48</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="n">
+        <x:v>95.84</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A42" s="0" t="n">
+        <x:v>618.7</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="n">
+        <x:v>136.19</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A43" s="0" t="n">
+        <x:v>406.6</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="n">
+        <x:v>640.78</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A44" s="0" t="n">
+        <x:v>906.25</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="n">
+        <x:v>83.67</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A45" s="0" t="n">
+        <x:v>981.34</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="n">
+        <x:v>194.22</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A46" s="0" t="n">
+        <x:v>31.34</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="n">
+        <x:v>782.26</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A47" s="0" t="n">
+        <x:v>646.75</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="n">
+        <x:v>476.8</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A48" s="0" t="n">
+        <x:v>815.39</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="n">
+        <x:v>418.73</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A49" s="0" t="n">
+        <x:v>279.61</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="n">
+        <x:v>449.09</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A50" s="0" t="n">
+        <x:v>1010.27</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="n">
+        <x:v>695.52</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A51" s="0" t="n">
+        <x:v>821.17</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="n">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1218,13 +2382,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -1238,13 +2402,13 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1258,13 +2422,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -1278,13 +2442,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -1298,13 +2462,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -1317,14 +2481,11 @@
       <x:c r="C7" s="0" t="n">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -1338,13 +2499,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -1358,13 +2519,13 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -1378,13 +2539,13 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -1398,13 +2559,13 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -1418,13 +2579,13 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -1438,13 +2599,13 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -1458,13 +2619,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
@@ -1478,13 +2639,13 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -1498,13 +2659,13 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -1517,14 +2678,11 @@
       <x:c r="C17" s="0" t="n">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -1538,13 +2696,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
@@ -1558,13 +2716,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -1577,14 +2735,11 @@
       <x:c r="C20" s="0" t="n">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -1598,13 +2753,13 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
@@ -1618,13 +2773,13 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
@@ -1638,13 +2793,13 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
@@ -1658,13 +2813,13 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -1678,13 +2833,13 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
@@ -1698,13 +2853,13 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
@@ -1718,13 +2873,13 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
@@ -1738,13 +2893,13 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
@@ -1758,13 +2913,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
@@ -1777,14 +2932,11 @@
       <x:c r="C30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
@@ -1798,13 +2950,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
@@ -1818,13 +2970,13 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
@@ -1838,13 +2990,13 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
@@ -1858,13 +3010,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
@@ -1878,13 +3030,13 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
@@ -1898,13 +3050,13 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
@@ -1918,13 +3070,13 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
@@ -1938,13 +3090,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
@@ -1958,13 +3110,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
@@ -1978,13 +3130,13 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
@@ -1998,13 +3150,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
@@ -2018,13 +3170,13 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
@@ -2038,13 +3190,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
@@ -2058,13 +3210,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
@@ -2078,13 +3230,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
@@ -2098,13 +3250,13 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
@@ -2118,13 +3270,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
@@ -2138,13 +3290,13 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
@@ -2158,13 +3310,13 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
@@ -2178,13 +3330,13 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
@@ -2198,13 +3350,13 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Input/input_UIDemo.xlsx
+++ b/Data/Input/input_UIDemo.xlsx
@@ -3,14 +3,14 @@
 <x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0123BBA0-9AF8-4DDC-B709-CA9F29842804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE1C89-B79D-4FFF-BCF7-F0EB0283239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <x:sheet name="Sheet2" sheetId="8" r:id="rId2"/>
-    <x:sheet name="Sheet3" sheetId="9" r:id="rId9"/>
+    <x:sheet name="Sheet3" sheetId="9" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -64,7 +64,7 @@
     <x:t>C146</x:t>
   </x:si>
   <x:si>
-    <x:t>715431</x:t>
+    <x:t>986225</x:t>
   </x:si>
   <x:si>
     <x:t>Success</x:t>
@@ -73,16 +73,16 @@
     <x:t>No Exception</x:t>
   </x:si>
   <x:si>
-    <x:t>715432</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715433</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715435</x:t>
+    <x:t>986226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986229</x:t>
   </x:si>
   <x:si>
     <x:t>Failed</x:t>
@@ -91,265 +91,265 @@
     <x:t>Business Exception</x:t>
   </x:si>
   <x:si>
-    <x:t>715436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715442</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715443</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715446</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715447</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715452</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715454</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715457</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715462</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715463</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715464</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715466</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715469</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715471</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715473</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715476</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>851140</x:t>
+    <x:t>986230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986239</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476086</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476099</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1317,13 +1317,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F51"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1343,7 +1343,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="n">
         <x:v>911.07</x:v>
       </x:c>
@@ -1363,7 +1363,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="n">
         <x:v>897.56</x:v>
       </x:c>
@@ -1383,7 +1383,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="n">
         <x:v>382</x:v>
       </x:c>
@@ -1403,7 +1403,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="n">
         <x:v>484.04</x:v>
       </x:c>
@@ -1423,7 +1423,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="n">
         <x:v>329.5</x:v>
       </x:c>
@@ -1443,7 +1443,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="n">
         <x:v>374.31</x:v>
       </x:c>
@@ -1460,7 +1460,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="n">
         <x:v>86.43</x:v>
       </x:c>
@@ -1480,7 +1480,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="n">
         <x:v>599.98</x:v>
       </x:c>
@@ -1500,7 +1500,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="n">
         <x:v>446.53</x:v>
       </x:c>
@@ -1520,7 +1520,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="n">
         <x:v>662.42</x:v>
       </x:c>
@@ -1540,7 +1540,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="n">
         <x:v>560.55</x:v>
       </x:c>
@@ -1560,7 +1560,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="n">
         <x:v>115.34</x:v>
       </x:c>
@@ -1580,7 +1580,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="n">
         <x:v>262.48</x:v>
       </x:c>
@@ -1600,7 +1600,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="n">
         <x:v>840.24</x:v>
       </x:c>
@@ -1620,7 +1620,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="n">
         <x:v>737.16</x:v>
       </x:c>
@@ -1640,7 +1640,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1657,7 +1657,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="n">
         <x:v>147.54</x:v>
       </x:c>
@@ -1677,7 +1677,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="n">
         <x:v>980.09</x:v>
       </x:c>
@@ -1697,7 +1697,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="n">
         <x:v>408.62</x:v>
       </x:c>
@@ -1714,7 +1714,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="n">
         <x:v>349.37</x:v>
       </x:c>
@@ -1734,7 +1734,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="n">
         <x:v>794.12</x:v>
       </x:c>
@@ -1754,7 +1754,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="n">
         <x:v>89.77</x:v>
       </x:c>
@@ -1774,7 +1774,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="n">
         <x:v>40.43</x:v>
       </x:c>
@@ -1794,7 +1794,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="n">
         <x:v>40.33</x:v>
       </x:c>
@@ -1814,7 +1814,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="n">
         <x:v>1105.16</x:v>
       </x:c>
@@ -1834,7 +1834,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="n">
         <x:v>966.68</x:v>
       </x:c>
@@ -1854,7 +1854,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="n">
         <x:v>697.58</x:v>
       </x:c>
@@ -1874,7 +1874,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="n">
         <x:v>304.37</x:v>
       </x:c>
@@ -1894,7 +1894,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="n">
         <x:v>106.36</x:v>
       </x:c>
@@ -1911,7 +1911,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="n">
         <x:v>878.65</x:v>
       </x:c>
@@ -1931,7 +1931,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="n">
         <x:v>612.35</x:v>
       </x:c>
@@ -1951,7 +1951,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="n">
         <x:v>262.65</x:v>
       </x:c>
@@ -1971,7 +1971,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="n">
         <x:v>280.29</x:v>
       </x:c>
@@ -1991,7 +1991,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="35" spans="1:6">
       <x:c r="A35" s="0" t="n">
         <x:v>434.59</x:v>
       </x:c>
@@ -2011,7 +2011,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="n">
         <x:v>398.31</x:v>
       </x:c>
@@ -2031,7 +2031,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="37" spans="1:6">
       <x:c r="A37" s="0" t="n">
         <x:v>1028.43</x:v>
       </x:c>
@@ -2051,7 +2051,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="38" spans="1:6">
       <x:c r="A38" s="0" t="n">
         <x:v>1162.4</x:v>
       </x:c>
@@ -2071,7 +2071,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="39" spans="1:6">
       <x:c r="A39" s="0" t="n">
         <x:v>395.63</x:v>
       </x:c>
@@ -2091,7 +2091,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="40" spans="1:6">
       <x:c r="A40" s="0" t="n">
         <x:v>147.79</x:v>
       </x:c>
@@ -2111,7 +2111,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="41" spans="1:6">
       <x:c r="A41" s="0" t="n">
         <x:v>151.48</x:v>
       </x:c>
@@ -2131,7 +2131,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="42" spans="1:6">
       <x:c r="A42" s="0" t="n">
         <x:v>618.7</x:v>
       </x:c>
@@ -2151,7 +2151,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="43" spans="1:6">
       <x:c r="A43" s="0" t="n">
         <x:v>406.6</x:v>
       </x:c>
@@ -2171,7 +2171,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="44" spans="1:6">
       <x:c r="A44" s="0" t="n">
         <x:v>906.25</x:v>
       </x:c>
@@ -2191,7 +2191,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="45" spans="1:6">
       <x:c r="A45" s="0" t="n">
         <x:v>981.34</x:v>
       </x:c>
@@ -2211,7 +2211,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="46" spans="1:6">
       <x:c r="A46" s="0" t="n">
         <x:v>31.34</x:v>
       </x:c>
@@ -2231,7 +2231,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="47" spans="1:6">
       <x:c r="A47" s="0" t="n">
         <x:v>646.75</x:v>
       </x:c>
@@ -2251,7 +2251,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="48" spans="1:6">
       <x:c r="A48" s="0" t="n">
         <x:v>815.39</x:v>
       </x:c>
@@ -2271,7 +2271,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="49" spans="1:6">
       <x:c r="A49" s="0" t="n">
         <x:v>279.61</x:v>
       </x:c>
@@ -2291,7 +2291,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="50" spans="1:6">
       <x:c r="A50" s="0" t="n">
         <x:v>1010.27</x:v>
       </x:c>
@@ -2311,7 +2311,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="51" spans="1:6">
       <x:c r="A51" s="0" t="n">
         <x:v>821.17</x:v>
       </x:c>
@@ -2341,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2349,9 +2349,9 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -2371,7 +2371,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="n">
         <x:v>911.07</x:v>
       </x:c>
@@ -2391,7 +2391,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="n">
         <x:v>897.56</x:v>
       </x:c>
@@ -2411,7 +2411,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="n">
         <x:v>382</x:v>
       </x:c>
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6">
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="n">
         <x:v>484.04</x:v>
       </x:c>
@@ -2451,7 +2451,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="n">
         <x:v>329.5</x:v>
       </x:c>
@@ -2471,7 +2471,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6">
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="n">
         <x:v>374.31</x:v>
       </x:c>
@@ -2488,7 +2488,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6">
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="n">
         <x:v>86.43</x:v>
       </x:c>
@@ -2508,7 +2508,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:6">
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="n">
         <x:v>599.98</x:v>
       </x:c>
@@ -2528,7 +2528,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6">
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="n">
         <x:v>446.53</x:v>
       </x:c>
@@ -2548,7 +2548,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6">
+    <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="n">
         <x:v>662.42</x:v>
       </x:c>
@@ -2568,7 +2568,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6">
+    <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="n">
         <x:v>560.55</x:v>
       </x:c>
@@ -2588,7 +2588,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6">
+    <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="n">
         <x:v>115.34</x:v>
       </x:c>
@@ -2608,7 +2608,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:6">
+    <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="n">
         <x:v>262.48</x:v>
       </x:c>
@@ -2628,7 +2628,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:6">
+    <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="n">
         <x:v>840.24</x:v>
       </x:c>
@@ -2648,7 +2648,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6">
+    <x:row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="n">
         <x:v>737.16</x:v>
       </x:c>
@@ -2668,7 +2668,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6">
+    <x:row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -2685,7 +2685,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:6">
+    <x:row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="n">
         <x:v>147.54</x:v>
       </x:c>
@@ -2705,7 +2705,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:6">
+    <x:row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="n">
         <x:v>980.09</x:v>
       </x:c>
@@ -2725,7 +2725,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6">
+    <x:row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="n">
         <x:v>408.62</x:v>
       </x:c>
@@ -2742,7 +2742,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:6">
+    <x:row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="n">
         <x:v>349.37</x:v>
       </x:c>
@@ -2762,7 +2762,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:6">
+    <x:row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="n">
         <x:v>794.12</x:v>
       </x:c>
@@ -2782,7 +2782,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:6">
+    <x:row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A23" s="0" t="n">
         <x:v>89.77</x:v>
       </x:c>
@@ -2802,7 +2802,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:6">
+    <x:row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="n">
         <x:v>40.43</x:v>
       </x:c>
@@ -2822,7 +2822,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:6">
+    <x:row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="n">
         <x:v>40.33</x:v>
       </x:c>
@@ -2842,7 +2842,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:6">
+    <x:row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="n">
         <x:v>1105.16</x:v>
       </x:c>
@@ -2862,7 +2862,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:6">
+    <x:row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="n">
         <x:v>966.68</x:v>
       </x:c>
@@ -2882,7 +2882,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6">
+    <x:row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="n">
         <x:v>697.58</x:v>
       </x:c>
@@ -2902,7 +2902,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6">
+    <x:row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="n">
         <x:v>304.37</x:v>
       </x:c>
@@ -2922,7 +2922,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:6">
+    <x:row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="n">
         <x:v>106.36</x:v>
       </x:c>
@@ -2939,7 +2939,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:6">
+    <x:row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="n">
         <x:v>878.65</x:v>
       </x:c>
@@ -2959,7 +2959,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:6">
+    <x:row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="n">
         <x:v>612.35</x:v>
       </x:c>
@@ -2979,7 +2979,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6">
+    <x:row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="n">
         <x:v>262.65</x:v>
       </x:c>
@@ -2999,7 +2999,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6">
+    <x:row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="n">
         <x:v>280.29</x:v>
       </x:c>
@@ -3019,7 +3019,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6">
+    <x:row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="n">
         <x:v>434.59</x:v>
       </x:c>
@@ -3039,7 +3039,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:6">
+    <x:row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="n">
         <x:v>398.31</x:v>
       </x:c>
@@ -3059,7 +3059,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6">
+    <x:row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A37" s="0" t="n">
         <x:v>1028.43</x:v>
       </x:c>
@@ -3079,7 +3079,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6">
+    <x:row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A38" s="0" t="n">
         <x:v>1162.4</x:v>
       </x:c>
@@ -3099,7 +3099,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:6">
+    <x:row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A39" s="0" t="n">
         <x:v>395.63</x:v>
       </x:c>
@@ -3119,7 +3119,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:6">
+    <x:row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A40" s="0" t="n">
         <x:v>147.79</x:v>
       </x:c>
@@ -3139,7 +3139,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:6">
+    <x:row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A41" s="0" t="n">
         <x:v>151.48</x:v>
       </x:c>
@@ -3159,7 +3159,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:6">
+    <x:row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A42" s="0" t="n">
         <x:v>618.7</x:v>
       </x:c>
@@ -3179,7 +3179,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:6">
+    <x:row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A43" s="0" t="n">
         <x:v>406.6</x:v>
       </x:c>
@@ -3199,7 +3199,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:6">
+    <x:row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A44" s="0" t="n">
         <x:v>906.25</x:v>
       </x:c>
@@ -3219,7 +3219,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:6">
+    <x:row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A45" s="0" t="n">
         <x:v>981.34</x:v>
       </x:c>
@@ -3239,7 +3239,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:6">
+    <x:row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A46" s="0" t="n">
         <x:v>31.34</x:v>
       </x:c>
@@ -3259,7 +3259,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:6">
+    <x:row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A47" s="0" t="n">
         <x:v>646.75</x:v>
       </x:c>
@@ -3279,7 +3279,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:6">
+    <x:row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A48" s="0" t="n">
         <x:v>815.39</x:v>
       </x:c>
@@ -3299,7 +3299,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:6">
+    <x:row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A49" s="0" t="n">
         <x:v>279.61</x:v>
       </x:c>
@@ -3319,7 +3319,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:6">
+    <x:row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A50" s="0" t="n">
         <x:v>1010.27</x:v>
       </x:c>
@@ -3339,7 +3339,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:6">
+    <x:row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A51" s="0" t="n">
         <x:v>821.17</x:v>
       </x:c>
@@ -3369,30 +3369,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6a1fcef9-8c1c-4c75-859d-d52abd477b99" xsi:nil="true"/>
-    <Email xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-    <IDName xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-    <Discription xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-    <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1F744C9B594704FB632A9D8996A6EB1" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e1c7aed62f5b1bdacec2e9b40956c7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4edf56a-5a91-48ff-919c-183254b0e511" xmlns:ns3="6a1fcef9-8c1c-4c75-859d-d52abd477b99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a7bfa1f7866ee5f1ca9ba3bf69ef6ee" ns2:_="" ns3:_="">
     <xsd:import namespace="b4edf56a-5a91-48ff-919c-183254b0e511"/>
@@ -3679,10 +3655,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6a1fcef9-8c1c-4c75-859d-d52abd477b99" xsi:nil="true"/>
+    <Email xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+    <IDName xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+    <Discription xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+    <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22D617-8AB1-48FD-8257-282A8A840A4A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C55C6A-537F-49E6-867E-68262D1B251B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b4edf56a-5a91-48ff-919c-183254b0e511"/>
+    <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3699,20 +3710,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C55C6A-537F-49E6-867E-68262D1B251B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22D617-8AB1-48FD-8257-282A8A840A4A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b4edf56a-5a91-48ff-919c-183254b0e511"/>
-    <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Input/input_UIDemo.xlsx
+++ b/Data/Input/input_UIDemo.xlsx
@@ -3,14 +3,15 @@
 <x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE1C89-B79D-4FFF-BCF7-F0EB0283239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C28B28-245D-4078-9E83-C594A844DC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView minimized="1" xWindow="3585" yWindow="3585" windowWidth="18000" windowHeight="9360" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <x:sheet name="Sheet2" sheetId="8" r:id="rId2"/>
     <x:sheet name="Sheet3" sheetId="9" r:id="rId3"/>
+    <x:sheet name="Sheet4" sheetId="10" r:id="rId10"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>CashIn</x:t>
   </x:si>
@@ -350,6 +351,135 @@
   </x:si>
   <x:si>
     <x:t>476099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981873</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981874</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981875</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981876</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981877</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981878</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981879</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981881</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981884</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981886</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981889</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981893</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981895</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981896</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981898</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981905</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981911</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1317,13 +1447,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:F51"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="D1" sqref="D1"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1343,7 +1475,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="n">
         <x:v>911.07</x:v>
       </x:c>
@@ -1363,7 +1495,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="n">
         <x:v>897.56</x:v>
       </x:c>
@@ -1383,7 +1515,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="n">
         <x:v>382</x:v>
       </x:c>
@@ -1403,7 +1535,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6">
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="n">
         <x:v>484.04</x:v>
       </x:c>
@@ -1423,7 +1555,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="n">
         <x:v>329.5</x:v>
       </x:c>
@@ -1443,7 +1575,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6">
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="n">
         <x:v>374.31</x:v>
       </x:c>
@@ -1460,7 +1592,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6">
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="n">
         <x:v>86.43</x:v>
       </x:c>
@@ -1480,7 +1612,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:6">
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="n">
         <x:v>599.98</x:v>
       </x:c>
@@ -1500,7 +1632,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6">
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="n">
         <x:v>446.53</x:v>
       </x:c>
@@ -1520,7 +1652,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6">
+    <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="n">
         <x:v>662.42</x:v>
       </x:c>
@@ -1540,7 +1672,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6">
+    <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="n">
         <x:v>560.55</x:v>
       </x:c>
@@ -1560,7 +1692,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6">
+    <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="n">
         <x:v>115.34</x:v>
       </x:c>
@@ -1580,7 +1712,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:6">
+    <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="n">
         <x:v>262.48</x:v>
       </x:c>
@@ -1600,7 +1732,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:6">
+    <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="n">
         <x:v>840.24</x:v>
       </x:c>
@@ -1620,7 +1752,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6">
+    <x:row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="n">
         <x:v>737.16</x:v>
       </x:c>
@@ -1640,7 +1772,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6">
+    <x:row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1657,7 +1789,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:6">
+    <x:row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="n">
         <x:v>147.54</x:v>
       </x:c>
@@ -1677,7 +1809,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:6">
+    <x:row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="n">
         <x:v>980.09</x:v>
       </x:c>
@@ -1697,7 +1829,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6">
+    <x:row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="n">
         <x:v>408.62</x:v>
       </x:c>
@@ -1714,7 +1846,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:6">
+    <x:row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="n">
         <x:v>349.37</x:v>
       </x:c>
@@ -1734,7 +1866,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:6">
+    <x:row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="n">
         <x:v>794.12</x:v>
       </x:c>
@@ -1754,7 +1886,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:6">
+    <x:row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A23" s="0" t="n">
         <x:v>89.77</x:v>
       </x:c>
@@ -1774,7 +1906,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:6">
+    <x:row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="n">
         <x:v>40.43</x:v>
       </x:c>
@@ -1794,7 +1926,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:6">
+    <x:row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="n">
         <x:v>40.33</x:v>
       </x:c>
@@ -1814,7 +1946,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:6">
+    <x:row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="n">
         <x:v>1105.16</x:v>
       </x:c>
@@ -1834,7 +1966,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:6">
+    <x:row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="n">
         <x:v>966.68</x:v>
       </x:c>
@@ -1854,7 +1986,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6">
+    <x:row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="n">
         <x:v>697.58</x:v>
       </x:c>
@@ -1874,7 +2006,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6">
+    <x:row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="n">
         <x:v>304.37</x:v>
       </x:c>
@@ -1894,7 +2026,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:6">
+    <x:row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="n">
         <x:v>106.36</x:v>
       </x:c>
@@ -1911,7 +2043,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:6">
+    <x:row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="n">
         <x:v>878.65</x:v>
       </x:c>
@@ -1931,7 +2063,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:6">
+    <x:row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="n">
         <x:v>612.35</x:v>
       </x:c>
@@ -1951,7 +2083,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6">
+    <x:row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="n">
         <x:v>262.65</x:v>
       </x:c>
@@ -1971,7 +2103,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6">
+    <x:row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="n">
         <x:v>280.29</x:v>
       </x:c>
@@ -1991,7 +2123,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6">
+    <x:row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="n">
         <x:v>434.59</x:v>
       </x:c>
@@ -2011,7 +2143,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:6">
+    <x:row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="n">
         <x:v>398.31</x:v>
       </x:c>
@@ -2031,7 +2163,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6">
+    <x:row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A37" s="0" t="n">
         <x:v>1028.43</x:v>
       </x:c>
@@ -2051,7 +2183,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6">
+    <x:row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A38" s="0" t="n">
         <x:v>1162.4</x:v>
       </x:c>
@@ -2071,7 +2203,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:6">
+    <x:row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A39" s="0" t="n">
         <x:v>395.63</x:v>
       </x:c>
@@ -2091,7 +2223,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:6">
+    <x:row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A40" s="0" t="n">
         <x:v>147.79</x:v>
       </x:c>
@@ -2111,7 +2243,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:6">
+    <x:row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A41" s="0" t="n">
         <x:v>151.48</x:v>
       </x:c>
@@ -2131,7 +2263,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:6">
+    <x:row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A42" s="0" t="n">
         <x:v>618.7</x:v>
       </x:c>
@@ -2151,7 +2283,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:6">
+    <x:row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A43" s="0" t="n">
         <x:v>406.6</x:v>
       </x:c>
@@ -2171,7 +2303,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:6">
+    <x:row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A44" s="0" t="n">
         <x:v>906.25</x:v>
       </x:c>
@@ -2191,7 +2323,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:6">
+    <x:row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A45" s="0" t="n">
         <x:v>981.34</x:v>
       </x:c>
@@ -2211,7 +2343,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:6">
+    <x:row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A46" s="0" t="n">
         <x:v>31.34</x:v>
       </x:c>
@@ -2231,7 +2363,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:6">
+    <x:row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A47" s="0" t="n">
         <x:v>646.75</x:v>
       </x:c>
@@ -2251,7 +2383,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:6">
+    <x:row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A48" s="0" t="n">
         <x:v>815.39</x:v>
       </x:c>
@@ -2271,7 +2403,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:6">
+    <x:row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A49" s="0" t="n">
         <x:v>279.61</x:v>
       </x:c>
@@ -2291,7 +2423,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:6">
+    <x:row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A50" s="0" t="n">
         <x:v>1010.27</x:v>
       </x:c>
@@ -2311,7 +2443,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:6">
+    <x:row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A51" s="0" t="n">
         <x:v>821.17</x:v>
       </x:c>
@@ -2347,7 +2479,9 @@
   </x:sheetPr>
   <x:dimension ref="A1:F51"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D1" sqref="D1"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
@@ -3357,6 +3491,1034 @@
       </x:c>
       <x:c r="F51" s="0" t="s">
         <x:v>12</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F51"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="n">
+        <x:v>911.07</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>231.36</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="n">
+        <x:v>897.56</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>528.85</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="n">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>997.34</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="n">
+        <x:v>484.04</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>388.6</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="n">
+        <x:v>329.5</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>669.55</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="n">
+        <x:v>374.31</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="n">
+        <x:v>86.43</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>682.58</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="n">
+        <x:v>599.98</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>872.16</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="n">
+        <x:v>446.53</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>778.83</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="n">
+        <x:v>662.42</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>184.2</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="n">
+        <x:v>560.55</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>203.93</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="n">
+        <x:v>115.34</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>552.88</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="n">
+        <x:v>262.48</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>830.91</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="n">
+        <x:v>840.24</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>685.89</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="n">
+        <x:v>737.16</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>524.21</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>402.85</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="n">
+        <x:v>147.54</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="n">
+        <x:v>980.09</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>99.64</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="n">
+        <x:v>408.62</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="n">
+        <x:v>349.37</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>290.87</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="n">
+        <x:v>794.12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>432.29</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="n">
+        <x:v>89.77</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>167.9</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="n">
+        <x:v>40.43</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>3.03</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="n">
+        <x:v>40.33</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>480.28</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="n">
+        <x:v>1105.16</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>248.6</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="n">
+        <x:v>966.68</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>192.68</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="n">
+        <x:v>697.58</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>165.16</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="n">
+        <x:v>304.37</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>426.8</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="n">
+        <x:v>106.36</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>506.71</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="n">
+        <x:v>878.65</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="n">
+        <x:v>74.26</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="n">
+        <x:v>612.35</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="n">
+        <x:v>974.04</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="n">
+        <x:v>262.65</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="n">
+        <x:v>305.12</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="n">
+        <x:v>280.29</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>83.1</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="n">
+        <x:v>434.59</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>49.06</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="n">
+        <x:v>398.31</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="n">
+        <x:v>526.61</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="n">
+        <x:v>1028.43</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>55.02</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="n">
+        <x:v>1162.4</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="n">
+        <x:v>926.47</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="0" t="n">
+        <x:v>395.63</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="n">
+        <x:v>794.99</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="0" t="n">
+        <x:v>147.79</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="n">
+        <x:v>546.57</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="n">
+        <x:v>151.48</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="n">
+        <x:v>95.84</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="0" t="n">
+        <x:v>618.7</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="n">
+        <x:v>136.19</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="0" t="n">
+        <x:v>406.6</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="n">
+        <x:v>640.78</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="0" t="n">
+        <x:v>906.25</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="n">
+        <x:v>83.67</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="0" t="n">
+        <x:v>981.34</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="n">
+        <x:v>194.22</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="0" t="n">
+        <x:v>31.34</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="n">
+        <x:v>782.26</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="0" t="n">
+        <x:v>646.75</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="n">
+        <x:v>476.8</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="0" t="n">
+        <x:v>815.39</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="n">
+        <x:v>418.73</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="0" t="n">
+        <x:v>279.61</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="n">
+        <x:v>449.09</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="0" t="n">
+        <x:v>1010.27</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="n">
+        <x:v>695.52</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="0" t="n">
+        <x:v>821.17</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="n">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3656,6 +4818,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
@@ -3668,15 +4839,6 @@
     <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3699,6 +4861,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22D617-8AB1-48FD-8257-282A8A840A4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{830FCD06-BA89-455D-AA84-FED588865DB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3707,12 +4877,4 @@
     <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22D617-8AB1-48FD-8257-282A8A840A4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>